--- a/Rice_PADDY_sample/raw/Field_Overlay1 - piped.xlsx
+++ b/Rice_PADDY_sample/raw/Field_Overlay1 - piped.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-45" windowWidth="12495" windowHeight="6990" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-48" windowWidth="12492" windowHeight="6996" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Field_Overlay_all" sheetId="11" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="200">
   <si>
     <t>cm</t>
   </si>
@@ -614,6 +614,9 @@
   </si>
   <si>
     <t>SOIL1</t>
+  </si>
+  <si>
+    <t>Root distribution factor</t>
   </si>
 </sst>
 </file>
@@ -1078,26 +1081,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:6" ht="16.8">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1230,7 @@
       <c r="C9"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" ht="17.25">
+    <row r="10" spans="1:6" s="1" customFormat="1" ht="16.8">
       <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
@@ -1239,7 +1240,7 @@
       <c r="C10" s="23"/>
       <c r="D10" s="22"/>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
@@ -1300,7 +1301,7 @@
       <c r="A15"/>
       <c r="B15"/>
     </row>
-    <row r="16" spans="1:6" ht="17.25">
+    <row r="16" spans="1:6" ht="16.8">
       <c r="A16" s="20" t="s">
         <v>1</v>
       </c>
@@ -1310,7 +1311,7 @@
       <c r="C16" s="23"/>
       <c r="D16" s="22"/>
     </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="17" spans="1:13" s="1" customFormat="1">
       <c r="A17" s="17" t="s">
         <v>1</v>
       </c>
@@ -1367,7 +1368,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="28.8">
       <c r="A22" s="10" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1489,7 @@
       <c r="L31" s="32"/>
       <c r="M31" s="32"/>
     </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="32" spans="1:13" s="1" customFormat="1" ht="28.8">
       <c r="A32" s="10" t="s">
         <v>1</v>
       </c>
@@ -1559,7 +1560,7 @@
     <row r="37" spans="1:13">
       <c r="D37"/>
     </row>
-    <row r="38" spans="1:13" s="1" customFormat="1" ht="30">
+    <row r="38" spans="1:13" s="1" customFormat="1" ht="28.8">
       <c r="A38" s="10" t="s">
         <v>1</v>
       </c>
@@ -1666,7 +1667,7 @@
       <c r="B46"/>
       <c r="D46"/>
     </row>
-    <row r="48" spans="1:13" ht="17.25">
+    <row r="48" spans="1:13" ht="16.8">
       <c r="A48" s="20" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +1677,7 @@
       <c r="C48" s="23"/>
       <c r="D48" s="22"/>
     </row>
-    <row r="49" spans="1:12" ht="30">
+    <row r="49" spans="1:12">
       <c r="A49" s="17" t="s">
         <v>1</v>
       </c>
@@ -1761,7 +1762,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:12" ht="17.25">
+    <row r="53" spans="1:12" ht="16.8">
       <c r="A53" s="20" t="s">
         <v>1</v>
       </c>
@@ -1778,7 +1779,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:12" ht="30">
+    <row r="54" spans="1:12">
       <c r="A54" s="17" t="s">
         <v>1</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="38" customFormat="1" ht="30">
+    <row r="56" spans="1:12" s="38" customFormat="1" ht="28.8">
       <c r="A56" s="9" t="s">
         <v>1</v>
       </c>
@@ -2089,7 +2090,7 @@
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
-    <row r="72" spans="1:18" ht="17.25">
+    <row r="72" spans="1:18" ht="16.8">
       <c r="A72" s="20" t="s">
         <v>1</v>
       </c>
@@ -2099,7 +2100,7 @@
       <c r="C72" s="23"/>
       <c r="D72" s="22"/>
     </row>
-    <row r="73" spans="1:18" ht="30">
+    <row r="73" spans="1:18">
       <c r="A73" s="17" t="s">
         <v>1</v>
       </c>
@@ -2123,7 +2124,7 @@
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="1:18" s="5" customFormat="1" ht="90">
+    <row r="74" spans="1:18" s="5" customFormat="1" ht="86.4">
       <c r="A74" s="9" t="s">
         <v>1</v>
       </c>
@@ -2233,7 +2234,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
     </row>
-    <row r="78" spans="1:18" ht="17.25">
+    <row r="78" spans="1:18" ht="16.8">
       <c r="A78" s="20" t="s">
         <v>1</v>
       </c>
@@ -2243,7 +2244,7 @@
       <c r="C78" s="23"/>
       <c r="D78" s="22"/>
     </row>
-    <row r="79" spans="1:18" ht="30">
+    <row r="79" spans="1:18">
       <c r="A79" s="17" t="s">
         <v>1</v>
       </c>
@@ -2267,7 +2268,7 @@
       <c r="K79" s="2"/>
       <c r="L79" s="2"/>
     </row>
-    <row r="80" spans="1:18" s="5" customFormat="1" ht="75">
+    <row r="80" spans="1:18" s="5" customFormat="1" ht="57.6">
       <c r="A80" s="9" t="s">
         <v>1</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="17.25">
+    <row r="84" spans="1:10" ht="16.8">
       <c r="A84" s="20" t="s">
         <v>1</v>
       </c>
@@ -2345,7 +2346,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="85" spans="1:10" s="1" customFormat="1">
       <c r="A85" s="17" t="s">
         <v>1</v>
       </c>
@@ -2363,7 +2364,7 @@
       </c>
       <c r="F85" s="17"/>
     </row>
-    <row r="86" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="86" spans="1:10" s="1" customFormat="1">
       <c r="A86" s="10" t="s">
         <v>1</v>
       </c>
@@ -2406,7 +2407,7 @@
       <c r="B88" s="5"/>
       <c r="D88"/>
     </row>
-    <row r="89" spans="1:10" s="1" customFormat="1" ht="30">
+    <row r="89" spans="1:10" s="1" customFormat="1" ht="28.8">
       <c r="A89" s="10" t="s">
         <v>1</v>
       </c>
@@ -2504,26 +2505,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.25">
+    <row r="1" spans="1:16" ht="16.8">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -2655,12 +2654,12 @@
       <c r="C9"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:16" ht="17.25">
+    <row r="10" spans="1:16" ht="16.8">
       <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="22"/>
@@ -2672,7 +2671,7 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="30">
+    <row r="11" spans="1:16">
       <c r="A11" s="17" t="s">
         <v>1</v>
       </c>
@@ -2707,7 +2706,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="38" customFormat="1" ht="90">
+    <row r="13" spans="1:16" s="38" customFormat="1" ht="72">
       <c r="A13" s="9" t="s">
         <v>1</v>
       </c>
@@ -3010,26 +3009,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25">
+    <row r="1" spans="1:9" ht="16.8">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -3161,7 +3158,7 @@
       <c r="C9"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:9" ht="17.25">
+    <row r="10" spans="1:9" ht="16.8">
       <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
@@ -3172,7 +3169,7 @@
       <c r="D10" s="25"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="30">
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30">
+    <row r="12" spans="1:9" ht="28.8">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -3227,7 +3224,7 @@
     <row r="14" spans="1:9">
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:9" ht="60">
+    <row r="15" spans="1:9" ht="57.6">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -3295,7 +3292,7 @@
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:14" ht="30">
+    <row r="21" spans="1:14" ht="28.8">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -3326,7 +3323,7 @@
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25">
+    <row r="24" spans="1:14" ht="16.8">
       <c r="A24" s="20" t="s">
         <v>1</v>
       </c>
@@ -3341,7 +3338,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="30">
+    <row r="25" spans="1:14" s="1" customFormat="1">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -3362,7 +3359,7 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:14" ht="60">
+    <row r="26" spans="1:14" ht="57.6">
       <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
@@ -3406,13 +3403,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="60">
+    <row r="29" spans="1:14" ht="43.2">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B29" s="10"/>
       <c r="C29" s="9" t="s">
-        <v>56</v>
+        <v>199</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>57</v>
@@ -3494,7 +3491,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30">
+    <row r="35" spans="1:8" ht="28.8">
       <c r="A35" s="10" t="s">
         <v>1</v>
       </c>
@@ -3541,26 +3538,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
     <col min="11" max="12" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25">
+    <row r="1" spans="1:9" ht="16.8">
       <c r="A1" s="20" t="s">
         <v>1</v>
       </c>
@@ -3692,7 +3687,7 @@
       <c r="C9"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:9" ht="17.25">
+    <row r="10" spans="1:9" ht="16.8">
       <c r="A10" s="20" t="s">
         <v>1</v>
       </c>
@@ -3703,7 +3698,7 @@
       <c r="D10" s="25"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="30">
+    <row r="11" spans="1:9" s="1" customFormat="1">
       <c r="A11" s="19" t="s">
         <v>1</v>
       </c>
@@ -3720,7 +3715,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="30">
+    <row r="12" spans="1:9" ht="28.8">
       <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
@@ -3758,7 +3753,7 @@
     <row r="14" spans="1:9">
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:9" ht="60">
+    <row r="15" spans="1:9" ht="57.6">
       <c r="A15" s="10" t="s">
         <v>1</v>
       </c>
@@ -3826,7 +3821,7 @@
       <c r="C20"/>
       <c r="D20"/>
     </row>
-    <row r="21" spans="1:14" ht="30">
+    <row r="21" spans="1:14" ht="28.8">
       <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
@@ -3857,7 +3852,7 @@
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:14" ht="17.25">
+    <row r="24" spans="1:14" ht="16.8">
       <c r="A24" s="20" t="s">
         <v>1</v>
       </c>
@@ -3872,7 +3867,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" s="1" customFormat="1" ht="30">
+    <row r="25" spans="1:14" s="1" customFormat="1">
       <c r="A25" s="19" t="s">
         <v>1</v>
       </c>
@@ -3893,13 +3888,13 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:14" ht="60">
+    <row r="26" spans="1:14" ht="57.6">
       <c r="A26" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
-        <v>50</v>
+        <v>199</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>51</v>
@@ -3937,7 +3932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="60">
+    <row r="29" spans="1:14" ht="43.2">
       <c r="A29" s="10" t="s">
         <v>1</v>
       </c>
@@ -4025,7 +4020,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30">
+    <row r="35" spans="1:8" ht="28.8">
       <c r="A35" s="10" t="s">
         <v>1</v>
       </c>

--- a/Rice_PADDY_sample/raw/Field_Overlay1 - piped.xlsx
+++ b/Rice_PADDY_sample/raw/Field_Overlay1 - piped.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-48" windowWidth="12492" windowHeight="6996" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="-48" windowWidth="12492" windowHeight="6996" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Field_Overlay_all" sheetId="11" r:id="rId1"/>
     <sheet name="Field_Overlay_paddy" sheetId="13" r:id="rId2"/>
-    <sheet name="Field_Overlay_1" sheetId="9" r:id="rId3"/>
-    <sheet name="Field_Overlay_2" sheetId="12" r:id="rId4"/>
+    <sheet name="Field_Overlay_paddy_2" sheetId="14" r:id="rId3"/>
+    <sheet name="Field_Overlay_1" sheetId="9" r:id="rId4"/>
+    <sheet name="Field_Overlay_2" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="210">
   <si>
     <t>cm</t>
   </si>
@@ -592,9 +593,6 @@
     <t>minus 10 days</t>
   </si>
   <si>
-    <t>Paddy Management - not yet implemented</t>
-  </si>
-  <si>
     <t xml:space="preserve">! This must come after the planting event calculations. </t>
   </si>
   <si>
@@ -617,6 +615,39 @@
   </si>
   <si>
     <t>Root distribution factor</t>
+  </si>
+  <si>
+    <t>CREATE</t>
+  </si>
+  <si>
+    <t>IRRIGATION</t>
+  </si>
+  <si>
+    <t>NEW_EVENT()</t>
+  </si>
+  <si>
+    <t>Event Name</t>
+  </si>
+  <si>
+    <t>! Use + mark to start a new line to continually give parameters to the function.</t>
+  </si>
+  <si>
+    <t>New Event Gererating Function</t>
+  </si>
+  <si>
+    <t>Event Operations date (days after planting)</t>
+  </si>
+  <si>
+    <t>Event variable value</t>
+  </si>
+  <si>
+    <t>Event variable name</t>
+  </si>
+  <si>
+    <t>Paddy Management -- using NEW_EVENT() instead of PADDY()</t>
+  </si>
+  <si>
+    <t>PADDY_2</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1171,7 @@
         <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
         <v>120</v>
@@ -1219,7 +1250,7 @@
         <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E8" t="s">
         <v>110</v>
@@ -1767,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="C53" s="23"/>
       <c r="D53" s="22"/>
@@ -1825,19 +1856,22 @@
       <c r="D56" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H56" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="F56" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H56" s="39" t="s">
+      <c r="I56" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="J56" s="9" t="s">
         <v>173</v>
       </c>
     </row>
@@ -1855,7 +1889,7 @@
         <v>167</v>
       </c>
       <c r="E57">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="F57">
         <v>2</v>
@@ -1864,32 +1898,32 @@
         <v>150</v>
       </c>
       <c r="H57">
+        <v>-3</v>
+      </c>
+      <c r="I57">
         <v>20</v>
       </c>
-      <c r="I57">
+      <c r="J57">
         <v>5</v>
+      </c>
+      <c r="K57" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>187</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" t="s">
-        <v>167</v>
-      </c>
-      <c r="E58">
+      <c r="B58" s="5"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="H58">
         <v>4</v>
       </c>
-      <c r="H58">
+      <c r="I58">
         <v>30</v>
       </c>
-      <c r="I58">
+      <c r="J58">
         <v>15</v>
       </c>
     </row>
@@ -1897,22 +1931,16 @@
       <c r="A59" t="s">
         <v>187</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C59" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" t="s">
-        <v>167</v>
-      </c>
-      <c r="E59">
+      <c r="B59" s="5"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="H59">
         <v>11</v>
       </c>
-      <c r="H59">
+      <c r="I59">
         <v>50</v>
       </c>
-      <c r="I59">
+      <c r="J59">
         <v>25</v>
       </c>
     </row>
@@ -2380,7 +2408,7 @@
         <v>190</v>
       </c>
       <c r="H86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2459,7 +2487,7 @@
         <v>128</v>
       </c>
       <c r="H92" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -2504,6 +2532,510 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="12" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="16.8">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="33" t="str">
+        <f>CONCATENATE(D3,"-",D4,"-",D5,"-",D6,"-",D7,"-",D8)</f>
+        <v>RICE-1----PADDY</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="B9" s="5"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.8">
+      <c r="A10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="22"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="38" customFormat="1" ht="72">
+      <c r="A13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>150</v>
+      </c>
+      <c r="H14">
+        <v>-3</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>30</v>
+      </c>
+      <c r="M14">
+        <v>15</v>
+      </c>
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="O14">
+        <v>50</v>
+      </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15"/>
+      <c r="B15" s="5"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16"/>
+      <c r="B16" s="5"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17"/>
+      <c r="B17" s="5"/>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C22" t="s">
+        <v>155</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" s="4">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>179</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="5">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
+        <v>179</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D25" s="4">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>180</v>
+      </c>
+      <c r="C26" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="4">
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D27" s="4">
+        <v>25</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
+      <c r="B28"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29"/>
+      <c r="B29" s="5"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="B30" s="5"/>
+      <c r="D30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -2546,7 +3078,7 @@
       </c>
       <c r="D2" s="33" t="str">
         <f>CONCATENATE(D3,"-",D4,"-",D5,"-",D6,"-",D7,"-",D8)</f>
-        <v>RICE-1----PADDY</v>
+        <v>RICE-1----PADDY_2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>108</v>
@@ -2564,7 +3096,7 @@
         <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
         <v>120</v>
@@ -2643,7 +3175,7 @@
         <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="E8" t="s">
         <v>110</v>
@@ -2659,10 +3191,11 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
       <c r="C10" s="23"/>
       <c r="D10" s="22"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -2706,827 +3239,458 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="38" customFormat="1" ht="72">
+    <row r="13" spans="1:16" s="38" customFormat="1" ht="28.8">
       <c r="A13" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="F13" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="G13" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="H13" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="K13" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="M13" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="N13" s="38" t="s">
-        <v>181</v>
-      </c>
-      <c r="O13" s="39" t="s">
-        <v>172</v>
-      </c>
-      <c r="P13" s="39" t="s">
-        <v>173</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>199</v>
       </c>
       <c r="C14" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E14">
+        <v>-3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" t="s">
         <v>153</v>
       </c>
-      <c r="D14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
+      <c r="I14">
         <v>150</v>
       </c>
-      <c r="H14">
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" t="s">
+        <v>200</v>
+      </c>
+      <c r="D15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E15">
         <v>-3</v>
       </c>
-      <c r="I14">
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" t="s">
+        <v>153</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D16" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16">
+        <v>-3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" t="s">
+        <v>153</v>
+      </c>
+      <c r="I16">
         <v>20</v>
       </c>
-      <c r="J14">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D17" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17">
+        <v>-3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>151</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H17" t="s">
+        <v>153</v>
+      </c>
+      <c r="I17" s="4">
         <v>5</v>
       </c>
-      <c r="K14">
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C18" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="L14">
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="5">
         <v>30</v>
       </c>
-      <c r="M14">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H19" t="s">
+        <v>153</v>
+      </c>
+      <c r="I19" s="4">
         <v>15</v>
       </c>
-      <c r="N14">
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
+      <c r="D20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20">
         <v>11</v>
       </c>
-      <c r="O14">
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="4">
         <v>50</v>
       </c>
-      <c r="P14">
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" t="s">
+        <v>200</v>
+      </c>
+      <c r="D21" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" t="s">
+        <v>153</v>
+      </c>
+      <c r="I21" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15"/>
-      <c r="B15" s="5"/>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16"/>
-      <c r="B16" s="5"/>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17"/>
-      <c r="B17" s="5"/>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="38"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C20" t="s">
-        <v>154</v>
-      </c>
-      <c r="D20">
-        <v>150</v>
-      </c>
-      <c r="E20" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>178</v>
-      </c>
-      <c r="C22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" s="4">
-        <v>5</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C24" t="s">
-        <v>155</v>
-      </c>
-      <c r="D24" s="5">
-        <v>30</v>
-      </c>
-      <c r="E24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" t="s">
-        <v>179</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D25" s="4">
-        <v>15</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="4">
-        <v>50</v>
-      </c>
-      <c r="E26" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D27" s="4">
-        <v>25</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
-      <c r="B28"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29"/>
-      <c r="B29" s="5"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="B30" s="5"/>
-      <c r="D30"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="18.5546875" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="12" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="16.8">
-      <c r="A1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="33" t="str">
-        <f>CONCATENATE(D3,"-",D4,"-",D5,"-",D6,"-",D7,"-",D8)</f>
-        <v>RICE-1----SOIL1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5"/>
-      <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="B9" s="5"/>
-      <c r="C9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.8">
-      <c r="A10" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1">
-      <c r="A11" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8">
-      <c r="A12" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:9" ht="57.6">
-      <c r="A15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="B20" s="5"/>
-      <c r="C20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:14" ht="28.8">
-      <c r="A21" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="2">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+    <row r="22" spans="1:9">
+      <c r="A22"/>
+      <c r="B22" s="5"/>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23"/>
       <c r="B23" s="5"/>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:14" ht="16.8">
-      <c r="A24" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="23"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" s="1" customFormat="1">
-      <c r="A25" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="M25"/>
-      <c r="N25"/>
-    </row>
-    <row r="26" spans="1:14" ht="57.6">
-      <c r="A26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="9" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>153</v>
+      </c>
+      <c r="E25" s="38"/>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>178</v>
+      </c>
+      <c r="C26" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26">
+        <v>150</v>
+      </c>
+      <c r="E26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" t="s">
+        <v>155</v>
+      </c>
+      <c r="D28">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" s="5">
+        <v>30</v>
+      </c>
+      <c r="E30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>179</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D31" s="4">
+        <v>15</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="4">
         <v>50</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="26" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>20</v>
-      </c>
-      <c r="G27">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="43.2">
-      <c r="A29" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G29" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="F30">
-        <v>20</v>
-      </c>
-      <c r="G30">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="4" t="s">
-        <v>2</v>
+      <c r="E32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="28.8">
-      <c r="A35" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="H35" s="31"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="28">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="B37"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="5"/>
-      <c r="D38"/>
+        <v>180</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="4">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1"/>
+      <c r="B34"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35"/>
+      <c r="B35" s="5"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="B36" s="5"/>
+      <c r="D36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3579,7 +3743,7 @@
       </c>
       <c r="D2" s="33" t="str">
         <f>CONCATENATE(D3,"-",D4,"-",D5,"-",D6,"-",D7,"-",D8)</f>
-        <v>RICE-1----SOIL2</v>
+        <v>RICE-1----SOIL1</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>108</v>
@@ -3597,7 +3761,7 @@
         <v>118</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
         <v>120</v>
@@ -3676,7 +3840,7 @@
         <v>109</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
         <v>110</v>
@@ -3782,7 +3946,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="35">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3844,7 +4008,7 @@
         <v>158</v>
       </c>
       <c r="D22" s="2">
-        <v>1250</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -3894,7 +4058,536 @@
       </c>
       <c r="B26" s="10"/>
       <c r="C26" s="9" t="s">
-        <v>199</v>
+        <v>50</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="43.2">
+      <c r="A29" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="28.8">
+      <c r="A35" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="28">
+        <v>1</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="5"/>
+      <c r="D38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N38"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.5546875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="12" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.8">
+      <c r="A1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="33" t="str">
+        <f>CONCATENATE(D3,"-",D4,"-",D5,"-",D6,"-",D7,"-",D8)</f>
+        <v>RICE-1----SOIL2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5"/>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="5"/>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.8">
+      <c r="A10" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" s="1" customFormat="1">
+      <c r="A11" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8">
+      <c r="A12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:9" ht="57.6">
+      <c r="A15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="35">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="B20" s="5"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:14" ht="28.8">
+      <c r="A21" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="B23" s="5"/>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:14" ht="16.8">
+      <c r="A24" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" s="1" customFormat="1">
+      <c r="A25" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="M25"/>
+      <c r="N25"/>
+    </row>
+    <row r="26" spans="1:14" ht="57.6">
+      <c r="A26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="9" t="s">
+        <v>198</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>51</v>

--- a/Rice_PADDY_sample/raw/Field_Overlay1 - piped.xlsx
+++ b/Rice_PADDY_sample/raw/Field_Overlay1 - piped.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-48" windowWidth="12492" windowHeight="6996" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-48" windowWidth="12492" windowHeight="6996"/>
   </bookViews>
   <sheets>
     <sheet name="Field_Overlay_all" sheetId="11" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="234">
   <si>
     <t>cm</t>
   </si>
@@ -648,6 +648,78 @@
   </si>
   <si>
     <t>PADDY_2</t>
+  </si>
+  <si>
+    <t>Soil water content, air dry</t>
+  </si>
+  <si>
+    <t>Soil water, lower limit</t>
+  </si>
+  <si>
+    <t>SLADR</t>
+  </si>
+  <si>
+    <t>$SLLL</t>
+  </si>
+  <si>
+    <t>APSIM Evaporative diffusion constant</t>
+  </si>
+  <si>
+    <t>DiffusConst</t>
+  </si>
+  <si>
+    <t>APSIM Evaporative diffusion slope</t>
+  </si>
+  <si>
+    <t>DiffusSlope</t>
+  </si>
+  <si>
+    <t>Apsim Cona soil evaporation</t>
+  </si>
+  <si>
+    <t>CONA</t>
+  </si>
+  <si>
+    <t>Summer soil evaporation, upper limit for stage 1</t>
+  </si>
+  <si>
+    <t>SummerU</t>
+  </si>
+  <si>
+    <t>Winter soil evaporation, upper limit for stage 1</t>
+  </si>
+  <si>
+    <t>WinterU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date to switch to SummerU </t>
+  </si>
+  <si>
+    <t>SummerDate__soil</t>
+  </si>
+  <si>
+    <t>03-21</t>
+  </si>
+  <si>
+    <t>Date to switch to WinterU</t>
+  </si>
+  <si>
+    <t>WinterDate__soil</t>
+  </si>
+  <si>
+    <t>09-21</t>
+  </si>
+  <si>
+    <t>APSIM plant specific water uptake coefficient</t>
+  </si>
+  <si>
+    <t>apsim_kl</t>
+  </si>
+  <si>
+    <t>Biologically active soil organic carbon by layer</t>
+  </si>
+  <si>
+    <t>slacc</t>
   </si>
 </sst>
 </file>
@@ -732,7 +804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -816,6 +888,18 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1112,7 +1196,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R95"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -3037,7 +3121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -3700,9 +3784,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -4217,9 +4303,394 @@
     <row r="37" spans="1:8">
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="5"/>
-      <c r="D38"/>
+    <row r="38" spans="1:8" ht="28.8">
+      <c r="A38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="42">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="24"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="28.8">
+      <c r="A41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="28">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="24"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.8">
+      <c r="A44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="28">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="24"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="28.8">
+      <c r="A47" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="24"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="43.2">
+      <c r="A50" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="H50" s="31"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="28">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="24"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="39" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="H53" s="31"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="28">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="24"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="28.8">
+      <c r="A56" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="H56" s="31"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="24"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="39" customHeight="1">
+      <c r="A59" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="H59" s="31"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="24"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="43.2">
+      <c r="A62" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="H62" s="31"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="24"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="28.8">
+      <c r="A65" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="H65" s="31"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4229,9 +4700,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
@@ -4746,9 +5219,394 @@
     <row r="37" spans="1:8">
       <c r="B37"/>
     </row>
-    <row r="38" spans="1:8">
-      <c r="B38" s="5"/>
-      <c r="D38"/>
+    <row r="38" spans="1:8" ht="28.8">
+      <c r="A38" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="F38" s="26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="28" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="41" t="s">
+        <v>213</v>
+      </c>
+      <c r="F39" s="42">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="24"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="28.8">
+      <c r="A41" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="28">
+        <v>40</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="24"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.8">
+      <c r="A44" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="10"/>
+      <c r="C44" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D45" s="28">
+        <v>16</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="24"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" ht="28.8">
+      <c r="A47" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D48" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="24"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="43.2">
+      <c r="A50" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="10"/>
+      <c r="C50" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="D50" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="H50" s="31"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="28" t="s">
+        <v>221</v>
+      </c>
+      <c r="D51" s="28">
+        <v>6</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="24"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" ht="39" customHeight="1">
+      <c r="A53" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="D53" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="H53" s="31"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="28">
+        <v>6</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="24"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:8" ht="28.8">
+      <c r="A56" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="10"/>
+      <c r="C56" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="H56" s="31"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>225</v>
+      </c>
+      <c r="D57" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="24"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:8" ht="39" customHeight="1">
+      <c r="A59" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="H59" s="31"/>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C60" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="24"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:8" ht="43.2">
+      <c r="A62" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E62" s="34"/>
+      <c r="F62" s="34"/>
+      <c r="H62" s="31"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" s="28">
+        <v>0.06</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="24"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:8" ht="28.8">
+      <c r="A65" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="10"/>
+      <c r="C65" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="H65" s="31"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="D66" s="27">
+        <v>0.02</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
